--- a/gen.xlsx
+++ b/gen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/airm1/PycharmProjects/sertGenerator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460CACA8-3339-4B44-9747-752E3AA8AB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485E9843-FDD5-824C-9A43-D8FAED778328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="500" windowWidth="27980" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3887,7 +3887,7 @@
   <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/gen.xlsx
+++ b/gen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/airm1/PycharmProjects/sertGenerator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485E9843-FDD5-824C-9A43-D8FAED778328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4ADBEA3-0C14-7B46-B723-5740FE7B6F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="500" windowWidth="27980" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3228" uniqueCount="1155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3228" uniqueCount="1159">
   <si>
     <t>patronymic</t>
   </si>
@@ -3497,13 +3497,25 @@
   </si>
   <si>
     <t>Новикова</t>
+  </si>
+  <si>
+    <t>базовый модуль</t>
+  </si>
+  <si>
+    <t>Сторчак</t>
+  </si>
+  <si>
+    <t>WeDo 1</t>
+  </si>
+  <si>
+    <t>№2024/1349</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3542,6 +3554,36 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F2328"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F2328"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3563,13 +3605,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3884,10 +3935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2FFBFF7-4069-364C-A06C-C78A2E1D107D}">
-  <dimension ref="A1:H117"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3922,121 +3973,96 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>82</v>
+    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>1149</v>
-      </c>
-      <c r="G2" s="3">
-        <v>136</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>374</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G2" s="10">
+        <v>72</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>1158</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="5"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="5"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="5"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="5"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
@@ -4329,9 +4355,9 @@
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -4417,686 +4443,6 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="5"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="5"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="5"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="5"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="5"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="5"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="5"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="5"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="5"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="5"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="5"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="5"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="5"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="5"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="5"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="5"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="5"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="5"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="5"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="5"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="5"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="5"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="5"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="5"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="5"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="5"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="5"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="5"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="5"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="5"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="5"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="5"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="5"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="5"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="5"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="5"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="5"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="5"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="5"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="5"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="5"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="5"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="5"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="5"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="5"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="5"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="5"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="5"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="5"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="5"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="5"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="5"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="5"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="5"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="5"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="5"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="5"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="5"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="5"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="5"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="5"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="5"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="5"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="5"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
-      <c r="H113" s="5"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
-      <c r="H114" s="5"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="5"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
-      <c r="H116" s="5"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
